--- a/v1.5/voicegroup data.xlsx
+++ b/v1.5/voicegroup data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PX1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B2W2-Music-Patch\v1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10965" windowHeight="5280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10965" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>D1 13:</t>
   </si>
@@ -348,6 +348,63 @@
   </si>
   <si>
     <t>19DDE74</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>19E9D94</t>
+  </si>
+  <si>
+    <t>19EDE10</t>
+  </si>
+  <si>
+    <t>19EE72C</t>
+  </si>
+  <si>
+    <t>19F2520</t>
+  </si>
+  <si>
+    <t>19F48B4</t>
+  </si>
+  <si>
+    <t>19F88B8</t>
+  </si>
+  <si>
+    <t>19FAB6C</t>
+  </si>
+  <si>
+    <t>19FD898</t>
+  </si>
+  <si>
+    <t>19FDE4C</t>
+  </si>
+  <si>
+    <t>1A02870</t>
   </si>
 </sst>
 </file>
@@ -390,97 +447,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -797,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,6 +1285,20 @@
       <c r="B26" t="s">
         <v>39</v>
       </c>
+      <c r="I26" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1329,6 +1310,12 @@
       <c r="G28" t="s">
         <v>78</v>
       </c>
+      <c r="I28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1337,6 +1324,12 @@
       <c r="B29" t="s">
         <v>49</v>
       </c>
+      <c r="I29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1345,6 +1338,12 @@
       <c r="B30" t="s">
         <v>50</v>
       </c>
+      <c r="I30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1353,6 +1352,12 @@
       <c r="B31" t="s">
         <v>51</v>
       </c>
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1361,19 +1366,46 @@
       <c r="B32" t="s">
         <v>52</v>
       </c>
+      <c r="I32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A26 C1:C26">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A26 C5:D26 C4 B27:B32 C1:D3">
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D26 A2:A26 C2:C26 I2:I3 J3 F14:F15 F10:F11 F6:F7 G4:H17 M7:M16 K2:K6 I4:J6 F2:G3 I20:J24 G28 L2:L3 F25:K26 F18:H24 K18:K24 I7:K17 I18:J18">
-    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
+  <conditionalFormatting sqref="D17:D26 A2:A26 C2:C26 I2:I3 J3 F14:F15 F10:F11 F6:F7 G4:H17 M7:M16 K2:K6 I4:J6 F2:G3 I20:J24 G28 L2:L3 F25:K26 F18:H24 K18:K24 I7:K17 I18:J18 I27:I37 J27:J34 J36">
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M16 K1:K6 L2:L3 I1:I18">
-    <cfRule type="uniqueValues" dxfId="5" priority="30"/>
+    <cfRule type="uniqueValues" dxfId="0" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
